--- a/Shaka.xlsx
+++ b/Shaka.xlsx
@@ -16,18 +16,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Father Name</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>Age</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Nature Of Problem</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Caller</t>
   </si>
 </sst>
 </file>
@@ -366,26 +375,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
